--- a/src/test/resources/data_source/testData.xlsx
+++ b/src/test/resources/data_source/testData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Solvd\TestAutomation\Test-Automation-Assignment\src\test\resources\data_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360D2314-E2DB-4D2B-BD01-CA240CBAF84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC37E15A-C7EF-4BEC-94DE-1FA5498507DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="2415" windowWidth="21600" windowHeight="11385" xr2:uid="{7F124A49-358C-4984-B4E6-DEA50AB72D1E}"/>
+    <workbookView xWindow="450" yWindow="1830" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{7F124A49-358C-4984-B4E6-DEA50AB72D1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Player" sheetId="1" r:id="rId1"/>
+    <sheet name="City" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Execute</t>
   </si>
@@ -76,6 +77,15 @@
   </si>
   <si>
     <t>XLS0002</t>
+  </si>
+  <si>
+    <t>cityName</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Idaho Falls</t>
   </si>
 </sst>
 </file>
@@ -479,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08A2D51-9936-4312-8DC2-BE2AF89C1086}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,4 +559,56 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2824E37B-4EB6-4464-93EE-13161B1944BD}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>